--- a/uni_craw_section_chapter_header/Craw_ko_en/ko_en_section_notes_2024_2.xlsx
+++ b/uni_craw_section_chapter_header/Craw_ko_en/ko_en_section_notes_2024_2.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="11_7035C0E0BE330A255D2D4C1CADAC3D83797C3AF0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/uni_craw_section_chapter_header/Craw_ko_en/ko_en_section_notes_2024_2.xlsx
+++ b/uni_craw_section_chapter_header/Craw_ko_en/ko_en_section_notes_2024_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_section_chapter_header/Craw_ko_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_7035C0E0BE330A255D2D4C1CADAC3D83797C3AF0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_7035C0E0BE330A255D2D4C1CADAC3D83797C3AF0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9087EE16-B6FE-43EB-A381-36E50745372D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="645" windowWidth="20460" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -824,11 +824,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
